--- a/www/IndicatorsPerCountry/Namibia_GDPperCapita_TerritorialRef_1990_2012_CCode_516.xlsx
+++ b/www/IndicatorsPerCountry/Namibia_GDPperCapita_TerritorialRef_1990_2012_CCode_516.xlsx
@@ -237,13 +237,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Namibia_GDPperCapita_TerritorialRef_1990_2012_CCode_516.xlsx
+++ b/www/IndicatorsPerCountry/Namibia_GDPperCapita_TerritorialRef_1990_2012_CCode_516.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="85">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,178 +36,202 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>2160</t>
-  </si>
-  <si>
-    <t>2176</t>
-  </si>
-  <si>
-    <t>2191</t>
-  </si>
-  <si>
-    <t>2223</t>
-  </si>
-  <si>
-    <t>2292</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2339</t>
-  </si>
-  <si>
-    <t>2370</t>
-  </si>
-  <si>
-    <t>2376</t>
-  </si>
-  <si>
-    <t>2451</t>
-  </si>
-  <si>
-    <t>2616</t>
-  </si>
-  <si>
-    <t>2579</t>
-  </si>
-  <si>
-    <t>2869</t>
-  </si>
-  <si>
-    <t>3076</t>
-  </si>
-  <si>
-    <t>3486</t>
-  </si>
-  <si>
-    <t>3626</t>
-  </si>
-  <si>
-    <t>3668</t>
-  </si>
-  <si>
-    <t>3430</t>
-  </si>
-  <si>
-    <t>3369</t>
-  </si>
-  <si>
-    <t>3396</t>
-  </si>
-  <si>
-    <t>3321</t>
-  </si>
-  <si>
-    <t>3314</t>
-  </si>
-  <si>
-    <t>3387</t>
-  </si>
-  <si>
-    <t>3401</t>
-  </si>
-  <si>
-    <t>3425</t>
-  </si>
-  <si>
-    <t>3334</t>
-  </si>
-  <si>
-    <t>3389</t>
-  </si>
-  <si>
-    <t>3505</t>
-  </si>
-  <si>
-    <t>3658</t>
-  </si>
-  <si>
-    <t>3703</t>
-  </si>
-  <si>
-    <t>3767</t>
-  </si>
-  <si>
-    <t>3825</t>
-  </si>
-  <si>
-    <t>3789</t>
-  </si>
-  <si>
-    <t>3577</t>
-  </si>
-  <si>
-    <t>3341</t>
-  </si>
-  <si>
-    <t>3344</t>
-  </si>
-  <si>
-    <t>3339</t>
-  </si>
-  <si>
-    <t>3277</t>
-  </si>
-  <si>
-    <t>3364</t>
-  </si>
-  <si>
-    <t>3140.96108377</t>
-  </si>
-  <si>
-    <t>3229.04236864</t>
-  </si>
-  <si>
-    <t>3443.53816291</t>
-  </si>
-  <si>
-    <t>3284.46685321</t>
-  </si>
-  <si>
-    <t>3415.06915286</t>
-  </si>
-  <si>
-    <t>3467.1877955</t>
-  </si>
-  <si>
-    <t>3482.53224459</t>
-  </si>
-  <si>
-    <t>3542.75024319</t>
-  </si>
-  <si>
-    <t>3581.44776843</t>
-  </si>
-  <si>
-    <t>3629.71984065</t>
-  </si>
-  <si>
-    <t>3660.52934286</t>
-  </si>
-  <si>
-    <t>3660.27973777</t>
-  </si>
-  <si>
-    <t>3703.32212629</t>
-  </si>
-  <si>
-    <t>3788.89096162</t>
-  </si>
-  <si>
-    <t>3992.23380706</t>
-  </si>
-  <si>
-    <t>4048.10595379</t>
-  </si>
-  <si>
-    <t>4291.53760903</t>
-  </si>
-  <si>
-    <t>4484.23124288</t>
-  </si>
-  <si>
-    <t>4570.8534957</t>
+    <t>4009</t>
+  </si>
+  <si>
+    <t>4038</t>
+  </si>
+  <si>
+    <t>4066</t>
+  </si>
+  <si>
+    <t>4125</t>
+  </si>
+  <si>
+    <t>4254</t>
+  </si>
+  <si>
+    <t>4288</t>
+  </si>
+  <si>
+    <t>4340</t>
+  </si>
+  <si>
+    <t>4398</t>
+  </si>
+  <si>
+    <t>4409</t>
+  </si>
+  <si>
+    <t>4549</t>
+  </si>
+  <si>
+    <t>4855</t>
+  </si>
+  <si>
+    <t>4787</t>
+  </si>
+  <si>
+    <t>5324</t>
+  </si>
+  <si>
+    <t>5710</t>
+  </si>
+  <si>
+    <t>6468</t>
+  </si>
+  <si>
+    <t>6728</t>
+  </si>
+  <si>
+    <t>6808</t>
+  </si>
+  <si>
+    <t>6365</t>
+  </si>
+  <si>
+    <t>6253</t>
+  </si>
+  <si>
+    <t>6303</t>
+  </si>
+  <si>
+    <t>6164</t>
+  </si>
+  <si>
+    <t>6258</t>
+  </si>
+  <si>
+    <t>6156</t>
+  </si>
+  <si>
+    <t>6177</t>
+  </si>
+  <si>
+    <t>6387</t>
+  </si>
+  <si>
+    <t>6293</t>
+  </si>
+  <si>
+    <t>6150</t>
+  </si>
+  <si>
+    <t>5984</t>
+  </si>
+  <si>
+    <t>6027</t>
+  </si>
+  <si>
+    <t>6073</t>
+  </si>
+  <si>
+    <t>6271</t>
+  </si>
+  <si>
+    <t>6064</t>
+  </si>
+  <si>
+    <t>5734</t>
+  </si>
+  <si>
+    <t>5539</t>
+  </si>
+  <si>
+    <t>5396</t>
+  </si>
+  <si>
+    <t>5530</t>
+  </si>
+  <si>
+    <t>5595</t>
+  </si>
+  <si>
+    <t>5386</t>
+  </si>
+  <si>
+    <t>5208</t>
+  </si>
+  <si>
+    <t>5007</t>
+  </si>
+  <si>
+    <t>5239.03411663599</t>
+  </si>
+  <si>
+    <t>5532.67248715834</t>
+  </si>
+  <si>
+    <t>5294.24273389667</t>
+  </si>
+  <si>
+    <t>5545.4623069061</t>
+  </si>
+  <si>
+    <t>5638.76662412042</t>
+  </si>
+  <si>
+    <t>5687.11666368584</t>
+  </si>
+  <si>
+    <t>5796.63173692149</t>
+  </si>
+  <si>
+    <t>5859.88344869594</t>
+  </si>
+  <si>
+    <t>5926.42773955225</t>
+  </si>
+  <si>
+    <t>5971.81478654904</t>
+  </si>
+  <si>
+    <t>5888.43206519597</t>
+  </si>
+  <si>
+    <t>6069.32028106386</t>
+  </si>
+  <si>
+    <t>6082.42632114582</t>
+  </si>
+  <si>
+    <t>6712.77178402593</t>
+  </si>
+  <si>
+    <t>6807.57570891404</t>
+  </si>
+  <si>
+    <t>7208.68850110528</t>
+  </si>
+  <si>
+    <t>7509.5268108824</t>
+  </si>
+  <si>
+    <t>7618.0309766976</t>
+  </si>
+  <si>
+    <t>7548.12893855305</t>
+  </si>
+  <si>
+    <t>7905.54089768257</t>
+  </si>
+  <si>
+    <t>8203</t>
+  </si>
+  <si>
+    <t>8483</t>
+  </si>
+  <si>
+    <t>8793</t>
+  </si>
+  <si>
+    <t>9170</t>
+  </si>
+  <si>
+    <t>9462</t>
+  </si>
+  <si>
+    <t>9376</t>
   </si>
   <si>
     <t>Description</t>
@@ -835,7 +859,7 @@
         <v>1980.0</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -852,7 +876,7 @@
         <v>1981.0</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34">
@@ -869,7 +893,7 @@
         <v>1982.0</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
@@ -886,7 +910,7 @@
         <v>1983.0</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36">
@@ -903,7 +927,7 @@
         <v>1984.0</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
@@ -1312,6 +1336,142 @@
       </c>
       <c r="E60" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>516.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>516.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>516.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>516.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>516.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>516.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>516.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>516.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1329,50 +1489,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
